--- a/Responses.xlsx
+++ b/Responses.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="15 June 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="18 June 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Company</t>
   </si>
@@ -37,58 +37,40 @@
     <t>OPC</t>
   </si>
   <si>
+    <t>John Robinson</t>
+  </si>
+  <si>
     <t>Max Robinson</t>
   </si>
   <si>
-    <t>Darren Robinson</t>
-  </si>
-  <si>
-    <t>John Robinson</t>
-  </si>
-  <si>
-    <t>Have the phones been busy</t>
-  </si>
-  <si>
-    <t>What is the RAG status of services</t>
-  </si>
-  <si>
     <t>Question A</t>
   </si>
   <si>
+    <t>Question B</t>
+  </si>
+  <si>
+    <t>Question C</t>
+  </si>
+  <si>
+    <t>Question D</t>
+  </si>
+  <si>
+    <t>June 2025</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
     <t>June 2025 Quarter</t>
   </si>
   <si>
     <t>March 2025 Quarter</t>
   </si>
   <si>
-    <t>September 2025 Quarter</t>
-  </si>
-  <si>
-    <t>December 2025 Quarter</t>
-  </si>
-  <si>
-    <t>June 2025</t>
-  </si>
-  <si>
-    <t>May 2025</t>
-  </si>
-  <si>
-    <t>April 2025</t>
-  </si>
-  <si>
-    <t>March 2025</t>
+    <t>Green</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Amber+</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>No+</t>
   </si>
 </sst>
 </file>
@@ -446,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,35 +459,44 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -527,13 +518,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -541,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -549,16 +543,19 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -566,186 +563,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
         <v>16</v>
       </c>
     </row>
